--- a/BoM/Costs/redshift-bom.xlsx
+++ b/BoM/Costs/redshift-bom.xlsx
@@ -1910,7 +1910,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2022-10-07 10:39:06</t>
+    <t>2022-10-07 12:23:30</t>
   </si>
   <si>
     <t>KiCost® v1.1.12 + KiBot v1.3.0</t>

--- a/BoM/Costs/redshift-bom.xlsx
+++ b/BoM/Costs/redshift-bom.xlsx
@@ -1910,7 +1910,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2022-10-07 12:23:30</t>
+    <t>2022-10-07 14:18:40</t>
   </si>
   <si>
     <t>KiCost® v1.1.12 + KiBot v1.3.0</t>
